--- a/_resource/excel/S-属性定义-成就属性-(框架维护,请勿修改).xlsx
+++ b/_resource/excel/S-属性定义-成就属性-(框架维护,请勿修改).xlsx
@@ -27,7 +27,7 @@
     <author>PCC</author>
   </authors>
   <commentList>
-    <comment ref="R4" authorId="0" shapeId="0">
+    <comment ref="S4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
   <si>
     <t>LuaFile(string)</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>MaxValue(string)</t>
-  </si>
-  <si>
-    <t>LogicValue(string)</t>
   </si>
   <si>
     <t>Show(int)</t>
@@ -302,6 +299,18 @@
   </si>
   <si>
     <t>#achieveclass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunParam(string)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组集合最大容量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capacity(string)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -886,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AJ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -905,31 +914,31 @@
     <col min="10" max="11" width="19.375" style="6" customWidth="1"/>
     <col min="12" max="12" width="26" style="6" customWidth="1"/>
     <col min="13" max="13" width="23.75" style="6" customWidth="1"/>
-    <col min="14" max="14" width="12.875" style="6" customWidth="1"/>
-    <col min="15" max="15" width="17.125" style="6" customWidth="1"/>
-    <col min="16" max="17" width="12.875" style="6" customWidth="1"/>
-    <col min="18" max="18" width="17.125" style="6" customWidth="1"/>
-    <col min="19" max="19" width="11" style="6" customWidth="1"/>
-    <col min="20" max="20" width="12.875" style="6" customWidth="1"/>
-    <col min="21" max="21" width="15" style="6" customWidth="1"/>
-    <col min="22" max="22" width="11" style="6" customWidth="1"/>
-    <col min="23" max="23" width="13.75" style="6" customWidth="1"/>
-    <col min="24" max="25" width="17.125" style="6" customWidth="1"/>
-    <col min="26" max="26" width="12.625" style="6" customWidth="1"/>
-    <col min="27" max="27" width="14.875" style="6" customWidth="1"/>
-    <col min="28" max="29" width="11.5" style="6" customWidth="1"/>
-    <col min="30" max="30" width="10.875" style="6" customWidth="1"/>
-    <col min="31" max="31" width="9.375" style="6" customWidth="1"/>
-    <col min="32" max="32" width="17.125" style="6" customWidth="1"/>
-    <col min="33" max="33" width="21.5" style="6" customWidth="1"/>
-    <col min="34" max="34" width="24.875" style="6" customWidth="1"/>
-    <col min="35" max="35" width="28.75" style="6" customWidth="1"/>
+    <col min="14" max="15" width="18.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.125" style="6" customWidth="1"/>
+    <col min="17" max="18" width="12.875" style="6" customWidth="1"/>
+    <col min="19" max="19" width="17.125" style="6" customWidth="1"/>
+    <col min="20" max="20" width="11" style="6" customWidth="1"/>
+    <col min="21" max="21" width="12.875" style="6" customWidth="1"/>
+    <col min="22" max="22" width="15" style="6" customWidth="1"/>
+    <col min="23" max="23" width="11" style="6" customWidth="1"/>
+    <col min="24" max="24" width="13.75" style="6" customWidth="1"/>
+    <col min="25" max="26" width="17.125" style="6" customWidth="1"/>
+    <col min="27" max="27" width="12.625" style="6" customWidth="1"/>
+    <col min="28" max="28" width="14.875" style="6" customWidth="1"/>
+    <col min="29" max="30" width="11.5" style="6" customWidth="1"/>
+    <col min="31" max="31" width="10.875" style="6" customWidth="1"/>
+    <col min="32" max="32" width="9.375" style="6" customWidth="1"/>
+    <col min="33" max="33" width="17.125" style="6" customWidth="1"/>
+    <col min="34" max="34" width="21.5" style="6" customWidth="1"/>
+    <col min="35" max="35" width="24.875" style="6" customWidth="1"/>
+    <col min="36" max="36" width="28.75" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A1" s="8"/>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -963,9 +972,10 @@
       <c r="AF1" s="8"/>
       <c r="AG1" s="8"/>
       <c r="AH1" s="8"/>
-      <c r="AI1" s="1"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -974,7 +984,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>3</v>
@@ -989,7 +999,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>7</v>
@@ -1003,74 +1013,77 @@
       <c r="M2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="P2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="AA2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AC2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AD2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AE2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AF2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AG2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AH2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AI2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>0</v>
       </c>
@@ -1110,7 +1123,7 @@
       <c r="M3" s="9">
         <v>3</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="3">
         <v>3</v>
       </c>
       <c r="O3" s="9">
@@ -1120,13 +1133,13 @@
         <v>3</v>
       </c>
       <c r="Q3" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R3" s="9">
         <v>1</v>
       </c>
       <c r="S3" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T3" s="9">
         <v>3</v>
@@ -1138,7 +1151,7 @@
         <v>3</v>
       </c>
       <c r="W3" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X3" s="9">
         <v>1</v>
@@ -1147,7 +1160,7 @@
         <v>1</v>
       </c>
       <c r="Z3" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="9">
         <v>3</v>
@@ -1173,22 +1186,25 @@
       <c r="AH3" s="9">
         <v>3</v>
       </c>
-      <c r="AI3" s="3">
+      <c r="AI3" s="9">
+        <v>3</v>
+      </c>
+      <c r="AJ3" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>30</v>
@@ -1217,290 +1233,290 @@
       <c r="M4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="Q4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="R4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="S4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="T4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="U4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="V4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="W4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="X4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="Y4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="Z4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="Y4" s="10" t="s">
+      <c r="AA4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB4" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="AC4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AA4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD4" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG4" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH4" s="10" t="s">
+      <c r="B5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5">
+        <v>1</v>
+      </c>
+      <c r="U5" s="5">
+        <v>1</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0</v>
+      </c>
+      <c r="W5" s="5">
+        <v>0</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>0</v>
+      </c>
+      <c r="R6" s="11">
+        <v>0</v>
+      </c>
+      <c r="S6" s="11">
+        <v>0</v>
+      </c>
+      <c r="T6" s="11">
+        <v>1</v>
+      </c>
+      <c r="U6" s="11">
+        <v>1</v>
+      </c>
+      <c r="V6" s="11">
+        <v>0</v>
+      </c>
+      <c r="W6" s="11">
+        <v>0</v>
+      </c>
+      <c r="X6" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AI4" s="4" t="s">
-        <v>56</v>
+      <c r="F7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>0</v>
+      </c>
+      <c r="R7" s="12">
+        <v>0</v>
+      </c>
+      <c r="S7" s="12">
+        <v>0</v>
+      </c>
+      <c r="T7" s="12">
+        <v>1</v>
+      </c>
+      <c r="U7" s="12">
+        <v>1</v>
+      </c>
+      <c r="V7" s="12">
+        <v>0</v>
+      </c>
+      <c r="W7" s="12">
+        <v>0</v>
+      </c>
+      <c r="X7" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="12">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="5" t="s">
+    <row r="8" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="5" t="s">
+      <c r="C8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="5">
-        <v>0</v>
-      </c>
-      <c r="P5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>0</v>
-      </c>
-      <c r="R5" s="5">
-        <v>0</v>
-      </c>
-      <c r="S5" s="5">
-        <v>1</v>
-      </c>
-      <c r="T5" s="5">
-        <v>1</v>
-      </c>
-      <c r="U5" s="5">
-        <v>0</v>
-      </c>
-      <c r="V5" s="5">
-        <v>0</v>
-      </c>
-      <c r="W5" s="5">
-        <v>0</v>
-      </c>
-      <c r="X5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="O6" s="11">
-        <v>0</v>
-      </c>
-      <c r="P6" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>0</v>
-      </c>
-      <c r="R6" s="11">
-        <v>0</v>
-      </c>
-      <c r="S6" s="11">
-        <v>1</v>
-      </c>
-      <c r="T6" s="11">
-        <v>1</v>
-      </c>
-      <c r="U6" s="11">
-        <v>0</v>
-      </c>
-      <c r="V6" s="11">
-        <v>0</v>
-      </c>
-      <c r="W6" s="11">
-        <v>1</v>
-      </c>
-      <c r="X6" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="O7" s="12">
-        <v>0</v>
-      </c>
-      <c r="P7" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="12">
-        <v>0</v>
-      </c>
-      <c r="R7" s="12">
-        <v>0</v>
-      </c>
-      <c r="S7" s="12">
-        <v>1</v>
-      </c>
-      <c r="T7" s="12">
-        <v>1</v>
-      </c>
-      <c r="U7" s="12">
-        <v>0</v>
-      </c>
-      <c r="V7" s="12">
-        <v>0</v>
-      </c>
-      <c r="W7" s="12">
-        <v>0</v>
-      </c>
-      <c r="X7" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="O8" s="11">
-        <v>0</v>
-      </c>
       <c r="P8" s="11">
         <v>0</v>
       </c>
@@ -1511,19 +1527,19 @@
         <v>0</v>
       </c>
       <c r="S8" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="11">
         <v>1</v>
       </c>
       <c r="U8" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="11">
         <v>0</v>
       </c>
       <c r="W8" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="11">
         <v>1</v>
@@ -1532,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="Z8" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="11">
         <v>0</v>
@@ -1544,6 +1560,9 @@
         <v>0</v>
       </c>
       <c r="AD8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="11">
         <v>0</v>
       </c>
     </row>
